--- a/Feast data/Scenario_params_new.xlsx
+++ b/Feast data/Scenario_params_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\go29gaj\Documents\Github\DNDC Modelling\Feast data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FA834C-F869-45FD-8358-30F793DEE5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93456C8C-320F-467C-9DDA-B5360C43C6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
   </bookViews>
@@ -1989,7 +1989,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Feast data/Scenario_params_new.xlsx
+++ b/Feast data/Scenario_params_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\go29gaj\Documents\Github\DNDC Modelling\Feast data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93456C8C-320F-467C-9DDA-B5360C43C6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C11C8D-A23B-46FB-A828-E7192D82F45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{1756D58F-A50D-43D5-9CA7-E18DD85D0814}"/>
   </bookViews>
